--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3c</t>
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H2">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I2">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J2">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>30.50315124191278</v>
+        <v>77.07158151066966</v>
       </c>
       <c r="R2">
-        <v>274.5283611772149</v>
+        <v>693.644233596027</v>
       </c>
       <c r="S2">
-        <v>0.003350978507054934</v>
+        <v>0.007766720532849904</v>
       </c>
       <c r="T2">
-        <v>0.003350978507054935</v>
+        <v>0.007766720532849908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H3">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I3">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J3">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>15.34004065902445</v>
+        <v>35.91403325791866</v>
       </c>
       <c r="R3">
-        <v>138.06036593122</v>
+        <v>323.226299321268</v>
       </c>
       <c r="S3">
-        <v>0.001685207739294424</v>
+        <v>0.003619158372702084</v>
       </c>
       <c r="T3">
-        <v>0.001685207739294424</v>
+        <v>0.003619158372702085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H4">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I4">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J4">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>4.964670055261111</v>
+        <v>10.06216608101833</v>
       </c>
       <c r="R4">
-        <v>44.68203049735</v>
+        <v>90.559494729165</v>
       </c>
       <c r="S4">
-        <v>0.0005454027525831454</v>
+        <v>0.00101399284113006</v>
       </c>
       <c r="T4">
-        <v>0.0005454027525831454</v>
+        <v>0.001013992841130061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H5">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I5">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J5">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>14.68866988195945</v>
+        <v>36.23875030939567</v>
       </c>
       <c r="R5">
-        <v>132.198028937635</v>
+        <v>326.1487527845611</v>
       </c>
       <c r="S5">
-        <v>0.001613650231784534</v>
+        <v>0.003651881025353552</v>
       </c>
       <c r="T5">
-        <v>0.001613650231784534</v>
+        <v>0.003651881025353554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>105.316277</v>
       </c>
       <c r="I6">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J6">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>4144.090616639916</v>
+        <v>4472.405123198446</v>
       </c>
       <c r="R6">
-        <v>37296.81554975925</v>
+        <v>40251.64610878602</v>
       </c>
       <c r="S6">
-        <v>0.4552565234167454</v>
+        <v>0.450696871930151</v>
       </c>
       <c r="T6">
-        <v>0.4552565234167455</v>
+        <v>0.4506968719301511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>105.316277</v>
       </c>
       <c r="I7">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J7">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
         <v>2084.063972596677</v>
@@ -883,10 +883,10 @@
         <v>18756.57575337009</v>
       </c>
       <c r="S7">
-        <v>0.228948593675237</v>
+        <v>0.2100170014741236</v>
       </c>
       <c r="T7">
-        <v>0.228948593675237</v>
+        <v>0.2100170014741237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>105.316277</v>
       </c>
       <c r="I8">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J8">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>674.4890856539123</v>
+        <v>583.8998272662928</v>
       </c>
       <c r="R8">
-        <v>6070.40177088521</v>
+        <v>5255.098445396635</v>
       </c>
       <c r="S8">
-        <v>0.07409721085353879</v>
+        <v>0.05884123160141477</v>
       </c>
       <c r="T8">
-        <v>0.07409721085353881</v>
+        <v>0.05884123160141477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>105.316277</v>
       </c>
       <c r="I9">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J9">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>1995.570180470718</v>
+        <v>2102.90705556124</v>
       </c>
       <c r="R9">
-        <v>17960.13162423646</v>
+        <v>18926.16350005116</v>
       </c>
       <c r="S9">
-        <v>0.219226949079566</v>
+        <v>0.2119158720629257</v>
       </c>
       <c r="T9">
-        <v>0.219226949079566</v>
+        <v>0.2119158720629257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H10">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I10">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J10">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>64.75815132781177</v>
+        <v>249.4955186217917</v>
       </c>
       <c r="R10">
-        <v>582.823361950306</v>
+        <v>2245.459667596125</v>
       </c>
       <c r="S10">
-        <v>0.007114123112563385</v>
+        <v>0.02514236673689698</v>
       </c>
       <c r="T10">
-        <v>0.007114123112563387</v>
+        <v>0.02514236673689698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H11">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I11">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J11">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>32.56688682731644</v>
+        <v>116.2606265221666</v>
       </c>
       <c r="R11">
-        <v>293.101981445848</v>
+        <v>1046.3456386995</v>
       </c>
       <c r="S11">
-        <v>0.003577693889216167</v>
+        <v>0.01171591107218555</v>
       </c>
       <c r="T11">
-        <v>0.003577693889216168</v>
+        <v>0.01171591107218556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H12">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I12">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J12">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>10.53998821897111</v>
+        <v>32.57316504520833</v>
       </c>
       <c r="R12">
-        <v>94.85989397073999</v>
+        <v>293.158485406875</v>
       </c>
       <c r="S12">
-        <v>0.001157889350719084</v>
+        <v>0.003282489665033088</v>
       </c>
       <c r="T12">
-        <v>0.001157889350719084</v>
+        <v>0.003282489665033088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.958375</v>
+      </c>
+      <c r="H13">
+        <v>5.875125</v>
+      </c>
+      <c r="I13">
+        <v>0.05196260806057782</v>
+      </c>
+      <c r="J13">
+        <v>0.05196260806057783</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>59.90262233333334</v>
+      </c>
+      <c r="N13">
+        <v>179.707867</v>
+      </c>
+      <c r="O13">
+        <v>0.2275066827415657</v>
+      </c>
+      <c r="P13">
+        <v>0.2275066827415658</v>
+      </c>
+      <c r="Q13">
+        <v>117.3117980120417</v>
+      </c>
+      <c r="R13">
+        <v>1055.806182108375</v>
+      </c>
+      <c r="S13">
+        <v>0.01182184058646221</v>
+      </c>
+      <c r="T13">
+        <v>0.01182184058646221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5485793333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.645738</v>
-      </c>
-      <c r="I13">
-        <v>0.01527548374419571</v>
-      </c>
-      <c r="J13">
-        <v>0.01527548374419571</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>56.84506433333333</v>
-      </c>
-      <c r="N13">
-        <v>170.535193</v>
-      </c>
-      <c r="O13">
-        <v>0.2242663767030476</v>
-      </c>
-      <c r="P13">
-        <v>0.2242663767030476</v>
-      </c>
-      <c r="Q13">
-        <v>31.18402749527044</v>
-      </c>
-      <c r="R13">
-        <v>280.6562474574339</v>
-      </c>
-      <c r="S13">
-        <v>0.003425777391697076</v>
-      </c>
-      <c r="T13">
-        <v>0.003425777391697076</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.05819</v>
+      </c>
+      <c r="I14">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J14">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>127.3992563333333</v>
+      </c>
+      <c r="N14">
+        <v>382.197769</v>
+      </c>
+      <c r="O14">
+        <v>0.4838549810199306</v>
+      </c>
+      <c r="P14">
+        <v>0.4838549810199307</v>
+      </c>
+      <c r="Q14">
+        <v>2.471120908678889</v>
+      </c>
+      <c r="R14">
+        <v>22.24008817811</v>
+      </c>
+      <c r="S14">
+        <v>0.0002490218200327713</v>
+      </c>
+      <c r="T14">
+        <v>0.0002490218200327713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.05819</v>
+      </c>
+      <c r="I15">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J15">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.36586533333332</v>
+      </c>
+      <c r="N15">
+        <v>178.097596</v>
+      </c>
+      <c r="O15">
+        <v>0.2254681108101269</v>
+      </c>
+      <c r="P15">
+        <v>0.2254681108101269</v>
+      </c>
+      <c r="Q15">
+        <v>1.151499901248889</v>
+      </c>
+      <c r="R15">
+        <v>10.36349911124</v>
+      </c>
+      <c r="S15">
+        <v>0.0001160398911155894</v>
+      </c>
+      <c r="T15">
+        <v>0.0001160398911155894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.05819</v>
+      </c>
+      <c r="I16">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J16">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.63275166666667</v>
+      </c>
+      <c r="N16">
+        <v>49.898255</v>
+      </c>
+      <c r="O16">
+        <v>0.06317022542837675</v>
+      </c>
+      <c r="P16">
+        <v>0.06317022542837675</v>
+      </c>
+      <c r="Q16">
+        <v>0.3226199398277778</v>
+      </c>
+      <c r="R16">
+        <v>2.90357945845</v>
+      </c>
+      <c r="S16">
+        <v>3.251132079883839E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.251132079883839E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.05819</v>
+      </c>
+      <c r="I17">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J17">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>59.90262233333334</v>
+      </c>
+      <c r="N17">
+        <v>179.707867</v>
+      </c>
+      <c r="O17">
+        <v>0.2275066827415657</v>
+      </c>
+      <c r="P17">
+        <v>0.2275066827415658</v>
+      </c>
+      <c r="Q17">
+        <v>1.161911197858889</v>
+      </c>
+      <c r="R17">
+        <v>10.45720078073</v>
+      </c>
+      <c r="S17">
+        <v>0.0001170890668243205</v>
+      </c>
+      <c r="T17">
+        <v>0.0001170890668243205</v>
       </c>
     </row>
   </sheetData>
